--- a/Template/BC76-Template_Task-Group4.xlsx
+++ b/Template/BC76-Template_Task-Group4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CyberSoft\BOOTSTRAP\BC76_Capstone_Group4\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A2237D-DDCB-45A9-BAB7-1B8376572FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E277381E-1A89-4019-964C-92F476FCEC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t xml:space="preserve">      Contact Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Right Sidebar</t>
+  </si>
+  <si>
+    <t>Thanh Hiền &amp; Minh Duy</t>
+  </si>
+  <si>
+    <t>Minh Duy &amp; Thanh Hiền</t>
   </si>
 </sst>
 </file>
@@ -426,51 +435,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -784,10 +749,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1021"/>
+  <dimension ref="A1:J1022"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -918,7 +883,7 @@
         <v>45496</v>
       </c>
       <c r="D5" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>11</v>
@@ -937,7 +902,7 @@
       </c>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="33" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
@@ -951,7 +916,7 @@
         <v>0.8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="F6" s="7">
         <v>45498</v>
@@ -960,16 +925,16 @@
         <v>45498</v>
       </c>
       <c r="H6" s="8">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B7" s="7">
         <v>45497</v>
@@ -998,28 +963,28 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>18</v>
+      <c r="A8" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="B8" s="7">
+        <v>45497</v>
+      </c>
+      <c r="C8" s="7">
         <v>45498</v>
       </c>
-      <c r="C8" s="7">
-        <v>45499</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="D8" s="8">
         <v>1</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7">
-        <v>45499</v>
+        <v>45498</v>
       </c>
       <c r="G8" s="7">
-        <v>45499</v>
-      </c>
-      <c r="H8" s="15">
+        <v>45498</v>
+      </c>
+      <c r="H8" s="8">
         <v>1</v>
       </c>
       <c r="I8" s="9" t="s">
@@ -1029,7 +994,7 @@
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B9" s="7">
         <v>45498</v>
@@ -1055,55 +1020,55 @@
       <c r="I9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7">
+        <v>45498</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45499</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7">
+        <v>45499</v>
+      </c>
+      <c r="G10" s="7">
+        <v>45499</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="7">
-        <v>45498</v>
-      </c>
-      <c r="C11" s="7">
-        <v>45499</v>
-      </c>
-      <c r="D11" s="15">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="7">
-        <v>45499</v>
-      </c>
-      <c r="G11" s="7">
-        <v>45499</v>
-      </c>
-      <c r="H11" s="15">
-        <v>1</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" s="7">
         <v>45498</v>
@@ -1133,7 +1098,7 @@
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7">
         <v>45498</v>
@@ -1163,14 +1128,14 @@
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="7">
+        <v>45498</v>
+      </c>
+      <c r="C14" s="7">
         <v>45499</v>
       </c>
-      <c r="C14" s="7">
-        <v>45500</v>
-      </c>
       <c r="D14" s="15">
         <v>1</v>
       </c>
@@ -1178,10 +1143,10 @@
         <v>11</v>
       </c>
       <c r="F14" s="7">
-        <v>45500</v>
+        <v>45499</v>
       </c>
       <c r="G14" s="7">
-        <v>45500</v>
+        <v>45499</v>
       </c>
       <c r="H14" s="15">
         <v>1</v>
@@ -1193,7 +1158,7 @@
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7">
         <v>45499</v>
@@ -1223,7 +1188,7 @@
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="7">
         <v>45499</v>
@@ -1253,14 +1218,14 @@
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="7">
+        <v>45499</v>
+      </c>
+      <c r="C17" s="7">
         <v>45500</v>
       </c>
-      <c r="C17" s="7">
-        <v>45501</v>
-      </c>
       <c r="D17" s="15">
         <v>1</v>
       </c>
@@ -1268,10 +1233,10 @@
         <v>11</v>
       </c>
       <c r="F17" s="7">
-        <v>45501</v>
+        <v>45500</v>
       </c>
       <c r="G17" s="7">
-        <v>45501</v>
+        <v>45500</v>
       </c>
       <c r="H17" s="15">
         <v>1</v>
@@ -1283,7 +1248,7 @@
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="7">
         <v>45500</v>
@@ -1313,7 +1278,7 @@
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="7">
         <v>45500</v>
@@ -1342,52 +1307,52 @@
       <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="7">
+        <v>45500</v>
+      </c>
+      <c r="C20" s="7">
+        <v>45501</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7">
+        <v>45501</v>
+      </c>
+      <c r="G20" s="7">
+        <v>45501</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="7">
-        <v>45498</v>
-      </c>
-      <c r="C21" s="7">
-        <v>45499</v>
-      </c>
-      <c r="D21" s="15">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="7">
-        <v>45499</v>
-      </c>
-      <c r="G21" s="7">
-        <v>45499</v>
-      </c>
-      <c r="H21" s="15">
-        <v>1</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B22" s="7">
         <v>45498</v>
@@ -1417,7 +1382,7 @@
     </row>
     <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="7">
         <v>45498</v>
@@ -1447,14 +1412,14 @@
     </row>
     <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="7">
+        <v>45498</v>
+      </c>
+      <c r="C24" s="7">
         <v>45499</v>
       </c>
-      <c r="C24" s="7">
-        <v>45500</v>
-      </c>
       <c r="D24" s="15">
         <v>1</v>
       </c>
@@ -1462,10 +1427,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="7">
-        <v>45500</v>
+        <v>45499</v>
       </c>
       <c r="G24" s="7">
-        <v>45500</v>
+        <v>45499</v>
       </c>
       <c r="H24" s="15">
         <v>1</v>
@@ -1477,7 +1442,7 @@
     </row>
     <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="7">
         <v>45499</v>
@@ -1507,14 +1472,14 @@
     </row>
     <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="7">
+        <v>45499</v>
+      </c>
+      <c r="C26" s="7">
         <v>45500</v>
       </c>
-      <c r="C26" s="7">
-        <v>45501</v>
-      </c>
       <c r="D26" s="15">
         <v>1</v>
       </c>
@@ -1522,10 +1487,10 @@
         <v>12</v>
       </c>
       <c r="F26" s="7">
-        <v>45501</v>
+        <v>45500</v>
       </c>
       <c r="G26" s="7">
-        <v>45501</v>
+        <v>45500</v>
       </c>
       <c r="H26" s="15">
         <v>1</v>
@@ -1537,7 +1502,7 @@
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="7">
         <v>45500</v>
@@ -1567,7 +1532,7 @@
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="7">
         <v>45500</v>
@@ -1596,52 +1561,52 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="7">
+        <v>45500</v>
+      </c>
+      <c r="C29" s="7">
+        <v>45501</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="7">
+        <v>45501</v>
+      </c>
+      <c r="G29" s="7">
+        <v>45501</v>
+      </c>
+      <c r="H29" s="15">
+        <v>1</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="7">
-        <v>45501</v>
-      </c>
-      <c r="C30" s="7">
-        <v>45502</v>
-      </c>
-      <c r="D30" s="15">
-        <v>1</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="7">
-        <v>45502</v>
-      </c>
-      <c r="G30" s="7">
-        <v>45502</v>
-      </c>
-      <c r="H30" s="15">
-        <v>1</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B31" s="7">
         <v>45501</v>
@@ -1669,39 +1634,39 @@
       </c>
       <c r="J31" s="13"/>
     </row>
-    <row r="32" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="7">
+        <v>45501</v>
+      </c>
+      <c r="C32" s="7">
+        <v>45502</v>
+      </c>
+      <c r="D32" s="15">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="7">
+        <v>45502</v>
+      </c>
+      <c r="G32" s="7">
+        <v>45502</v>
+      </c>
+      <c r="H32" s="15">
+        <v>1</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="B32" s="7">
-        <v>45502</v>
-      </c>
-      <c r="C32" s="7">
-        <v>45503</v>
-      </c>
-      <c r="D32" s="15">
-        <v>1</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="7">
-        <v>45503</v>
-      </c>
-      <c r="G32" s="7">
-        <v>45503</v>
-      </c>
-      <c r="H32" s="15">
-        <v>1</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="13"/>
-    </row>
-    <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="B33" s="7">
         <v>45502</v>
@@ -1729,83 +1694,83 @@
       </c>
       <c r="J33" s="13"/>
     </row>
-    <row r="34" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="7">
+        <v>45502</v>
+      </c>
+      <c r="C34" s="7">
+        <v>45503</v>
+      </c>
+      <c r="D34" s="15">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="7">
+        <v>45503</v>
+      </c>
+      <c r="G34" s="7">
+        <v>45503</v>
+      </c>
+      <c r="H34" s="15">
+        <v>1</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B35" s="7">
         <v>45503</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C35" s="7">
         <v>45504</v>
       </c>
-      <c r="D34" s="15">
-        <v>1</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="7">
+      <c r="D35" s="15">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="7">
         <v>45504</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G35" s="7">
         <v>45504</v>
       </c>
-      <c r="H34" s="15">
-        <v>1</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="H35" s="15">
+        <v>1</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="13"/>
-    </row>
-    <row r="36" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="7">
-        <v>45502</v>
-      </c>
-      <c r="C36" s="7">
-        <v>45503</v>
-      </c>
-      <c r="D36" s="15">
-        <v>1</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="7">
-        <v>45504</v>
-      </c>
-      <c r="G36" s="7">
-        <v>45504</v>
-      </c>
-      <c r="H36" s="15">
-        <v>1</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="13"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="7">
         <v>45502</v>
@@ -1835,7 +1800,7 @@
     </row>
     <row r="38" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7">
         <v>45502</v>
@@ -1865,7 +1830,7 @@
     </row>
     <row r="39" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="7">
         <v>45502</v>
@@ -1893,7 +1858,36 @@
       </c>
       <c r="J39" s="13"/>
     </row>
-    <row r="40" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="7">
+        <v>45502</v>
+      </c>
+      <c r="C40" s="7">
+        <v>45503</v>
+      </c>
+      <c r="D40" s="15">
+        <v>1</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="7">
+        <v>45504</v>
+      </c>
+      <c r="G40" s="7">
+        <v>45504</v>
+      </c>
+      <c r="H40" s="15">
+        <v>1</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="13"/>
+    </row>
     <row r="41" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1903,7 +1897,7 @@
     <row r="47" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2875,49 +2869,50 @@
     <row r="1019" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1020" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1021" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1022" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H2 D2 D9:D20 H9:H20 H4:H7 D4:D7">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
+  <conditionalFormatting sqref="H2 D2 D10:D21 H10:H21 H4:H8 D4:D8">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 H3">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8 D8">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="H9 D9">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D28 H21:H28">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="greaterThan">
-      <formula>0.99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34 H34">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
-      <formula>0.99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29 H29">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
-      <formula>0.99</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D33 H30:H33">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D22:D29 H22:H29">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35 H35">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30 H30">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D34 H31:H34">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36 H36">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:D39 H36:H39">
+  <conditionalFormatting sqref="D37:D40 H37:H40">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>

--- a/Template/BC76-Template_Task-Group4.xlsx
+++ b/Template/BC76-Template_Task-Group4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CyberSoft\BOOTSTRAP\BC76_Capstone_Group4\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CyberSoft\BOOTSTRAP\BC76_Capstone_Group4\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E277381E-1A89-4019-964C-92F476FCEC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DA688F-B35D-4F2A-82E2-0134DF2464F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -192,14 +192,18 @@
   </si>
   <si>
     <t>Minh Duy &amp; Thanh Hiền</t>
+  </si>
+  <si>
+    <t>Reponsive Web</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
+    <numFmt numFmtId="167" formatCode="dd/mm"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -398,17 +402,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -431,11 +429,28 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -749,10 +764,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1022"/>
+  <dimension ref="A1:J1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -802,1093 +817,1122 @@
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="16">
         <v>45495</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="16">
         <v>45495</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="16">
         <v>45496</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="16">
         <v>45496</v>
       </c>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="13"/>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="16">
         <v>45495</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="16">
         <v>45495</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="16">
         <v>45496</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="16">
         <v>45496</v>
       </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="13"/>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="16">
         <v>45495</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="16">
         <v>45496</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="16">
         <v>45497</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="16">
         <v>45497</v>
       </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="13"/>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="33" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="16">
         <v>45497</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="16">
         <v>45498</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.8</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="16">
         <v>45498</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="16">
         <v>45498</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>0.8</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="16">
         <v>45497</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="16">
         <v>45498</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="16">
         <v>45498</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="16">
         <v>45498</v>
       </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="13"/>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="16">
         <v>45497</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="16">
         <v>45498</v>
       </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="16">
         <v>45498</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="16">
         <v>45498</v>
       </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="13"/>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="16">
         <v>45498</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="16">
         <v>45499</v>
       </c>
-      <c r="D9" s="15">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="16">
         <v>45499</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="16">
         <v>45499</v>
       </c>
-      <c r="H9" s="15">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="13"/>
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="16">
         <v>45498</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="16">
         <v>45499</v>
       </c>
-      <c r="D10" s="15">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="16">
         <v>45499</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="16">
         <v>45499</v>
       </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="16"/>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="13"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="16">
         <v>45498</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="16">
         <v>45499</v>
       </c>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="16">
         <v>45499</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="16">
         <v>45499</v>
       </c>
-      <c r="H12" s="15">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="13"/>
+      <c r="H12" s="13">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="16">
         <v>45498</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="16">
         <v>45499</v>
       </c>
-      <c r="D13" s="15">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="16">
         <v>45499</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="16">
         <v>45499</v>
       </c>
-      <c r="H13" s="15">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="13"/>
+      <c r="H13" s="13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="16">
         <v>45498</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="16">
         <v>45499</v>
       </c>
-      <c r="D14" s="15">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="16">
         <v>45499</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="16">
         <v>45499</v>
       </c>
-      <c r="H14" s="15">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="13"/>
+      <c r="H14" s="13">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="16">
         <v>45499</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="16">
         <v>45500</v>
       </c>
-      <c r="D15" s="15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="16">
         <v>45500</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="16">
         <v>45500</v>
       </c>
-      <c r="H15" s="15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="13"/>
+      <c r="H15" s="13">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="16">
         <v>45499</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="16">
         <v>45500</v>
       </c>
-      <c r="D16" s="15">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="16">
         <v>45500</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="16">
         <v>45500</v>
       </c>
-      <c r="H16" s="15">
-        <v>1</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="13"/>
+      <c r="H16" s="13">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="16">
         <v>45499</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="16">
         <v>45500</v>
       </c>
-      <c r="D17" s="15">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="16">
         <v>45500</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="16">
         <v>45500</v>
       </c>
-      <c r="H17" s="15">
-        <v>1</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="13"/>
+      <c r="H17" s="13">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="16">
         <v>45500</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="16">
         <v>45501</v>
       </c>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="16">
         <v>45501</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="16">
         <v>45501</v>
       </c>
-      <c r="H18" s="15">
-        <v>1</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="13"/>
+      <c r="H18" s="13">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="16">
         <v>45500</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="16">
         <v>45501</v>
       </c>
-      <c r="D19" s="15">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="16">
         <v>45501</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="16">
         <v>45501</v>
       </c>
-      <c r="H19" s="15">
-        <v>1</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="13"/>
+      <c r="H19" s="13">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="16">
         <v>45500</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="16">
         <v>45501</v>
       </c>
-      <c r="D20" s="15">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7">
+      <c r="D20" s="13">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="16">
         <v>45501</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="16">
         <v>45501</v>
       </c>
-      <c r="H20" s="15">
-        <v>1</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="13"/>
+      <c r="H20" s="13">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="13"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="16">
         <v>45498</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="16">
         <v>45499</v>
       </c>
-      <c r="D22" s="15">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="7">
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="16">
         <v>45499</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="16">
         <v>45499</v>
       </c>
-      <c r="H22" s="15">
-        <v>1</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="13"/>
+      <c r="H22" s="13">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="16">
         <v>45498</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="16">
         <v>45499</v>
       </c>
-      <c r="D23" s="15">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="7">
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="16">
         <v>45499</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="16">
         <v>45499</v>
       </c>
-      <c r="H23" s="15">
-        <v>1</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="13"/>
+      <c r="H23" s="13">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="16">
         <v>45498</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="16">
         <v>45499</v>
       </c>
-      <c r="D24" s="15">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="7">
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="16">
         <v>45499</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="16">
         <v>45499</v>
       </c>
-      <c r="H24" s="15">
-        <v>1</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="13"/>
+      <c r="H24" s="13">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="16">
         <v>45499</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="16">
         <v>45500</v>
       </c>
-      <c r="D25" s="15">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="16">
         <v>45500</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="16">
         <v>45500</v>
       </c>
-      <c r="H25" s="15">
-        <v>1</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" s="13"/>
+      <c r="H25" s="13">
+        <v>1</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="16">
         <v>45499</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="16">
         <v>45500</v>
       </c>
-      <c r="D26" s="15">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="7">
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="16">
         <v>45500</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="16">
         <v>45500</v>
       </c>
-      <c r="H26" s="15">
-        <v>1</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="13"/>
+      <c r="H26" s="13">
+        <v>1</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="16">
         <v>45500</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="16">
         <v>45501</v>
       </c>
-      <c r="D27" s="15">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="7">
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="16">
         <v>45501</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="16">
         <v>45501</v>
       </c>
-      <c r="H27" s="15">
-        <v>1</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" s="13"/>
+      <c r="H27" s="13">
+        <v>1</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="16">
         <v>45500</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="16">
         <v>45501</v>
       </c>
-      <c r="D28" s="15">
-        <v>1</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="16">
         <v>45501</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="16">
         <v>45501</v>
       </c>
-      <c r="H28" s="15">
-        <v>1</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="13"/>
+      <c r="H28" s="13">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="16">
         <v>45500</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="16">
         <v>45501</v>
       </c>
-      <c r="D29" s="15">
-        <v>1</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="7">
+      <c r="D29" s="13">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="16">
         <v>45501</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="16">
         <v>45501</v>
       </c>
-      <c r="H29" s="15">
-        <v>1</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="13"/>
+      <c r="H29" s="13">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="13"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="16">
         <v>45501</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="16">
         <v>45502</v>
       </c>
-      <c r="D31" s="15">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="7">
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="16">
         <v>45502</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="16">
         <v>45502</v>
       </c>
-      <c r="H31" s="15">
-        <v>1</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="13"/>
+      <c r="H31" s="13">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="16">
         <v>45501</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="16">
         <v>45502</v>
       </c>
-      <c r="D32" s="15">
-        <v>1</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="7">
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="16">
         <v>45502</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="16">
         <v>45502</v>
       </c>
-      <c r="H32" s="15">
-        <v>1</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="13"/>
+      <c r="H32" s="13">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="16">
         <v>45502</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="16">
         <v>45503</v>
       </c>
-      <c r="D33" s="15">
-        <v>1</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="7">
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="16">
         <v>45503</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="16">
         <v>45503</v>
       </c>
-      <c r="H33" s="15">
-        <v>1</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="13"/>
+      <c r="H33" s="13">
+        <v>1</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="16">
         <v>45502</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="16">
         <v>45503</v>
       </c>
-      <c r="D34" s="15">
-        <v>1</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="7">
+      <c r="D34" s="13">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="16">
         <v>45503</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="16">
         <v>45503</v>
       </c>
-      <c r="H34" s="15">
-        <v>1</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="13"/>
+      <c r="H34" s="13">
+        <v>1</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="16">
         <v>45503</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="16">
         <v>45504</v>
       </c>
-      <c r="D35" s="15">
-        <v>1</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="7">
+      <c r="D35" s="13">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="16">
         <v>45504</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="16">
         <v>45504</v>
       </c>
-      <c r="H35" s="15">
-        <v>1</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="13"/>
+      <c r="H35" s="13">
+        <v>1</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="13"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="16">
         <v>45502</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="16">
         <v>45503</v>
       </c>
-      <c r="D37" s="15">
-        <v>1</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="7">
+      <c r="D37" s="13">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="16">
         <v>45504</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="16">
         <v>45504</v>
       </c>
-      <c r="H37" s="15">
-        <v>1</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="13"/>
+      <c r="H37" s="13">
+        <v>1</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="16">
         <v>45502</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="16">
         <v>45503</v>
       </c>
-      <c r="D38" s="15">
-        <v>1</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="7">
+      <c r="D38" s="13">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="16">
         <v>45504</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="16">
         <v>45504</v>
       </c>
-      <c r="H38" s="15">
-        <v>1</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="13"/>
+      <c r="H38" s="13">
+        <v>1</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="16">
         <v>45502</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="16">
         <v>45503</v>
       </c>
-      <c r="D39" s="15">
-        <v>1</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="7">
+      <c r="D39" s="13">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="16">
         <v>45504</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="16">
         <v>45504</v>
       </c>
-      <c r="H39" s="15">
-        <v>1</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="13"/>
+      <c r="H39" s="13">
+        <v>1</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="16">
         <v>45502</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="16">
         <v>45503</v>
       </c>
-      <c r="D40" s="15">
-        <v>1</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="7">
+      <c r="D40" s="13">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="16">
         <v>45504</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="16">
         <v>45504</v>
       </c>
-      <c r="H40" s="15">
-        <v>1</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="13"/>
-    </row>
-    <row r="41" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H40" s="13">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="16">
+        <v>45504</v>
+      </c>
+      <c r="C41" s="16">
+        <v>45505</v>
+      </c>
+      <c r="D41" s="13">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="16">
+        <v>45505</v>
+      </c>
+      <c r="G41" s="16">
+        <v>45505</v>
+      </c>
+      <c r="H41" s="13">
+        <v>1</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="11"/>
+    </row>
     <row r="42" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1898,7 +1942,7 @@
     <row r="48" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2870,50 +2914,56 @@
     <row r="1020" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1021" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1022" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1023" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2 D2 D10:D21 H10:H21 H4:H8 D4:D8">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3 H3">
     <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 H3">
+  <conditionalFormatting sqref="H9 D9">
     <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9 D9">
+  <conditionalFormatting sqref="D22:D29 H22:H29">
     <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D29 H22:H29">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
-      <formula>0.99</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D35 H35">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30 H30">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D34 H31:H34">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D34 H31:H34">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
+  <conditionalFormatting sqref="D36 H36">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36 H36">
+  <conditionalFormatting sqref="D37:D39 H37:H39 H41 D41">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D40 H37:H40">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="D40 H40">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Template/BC76-Template_Task-Group4.xlsx
+++ b/Template/BC76-Template_Task-Group4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CyberSoft\BOOTSTRAP\BC76_Capstone_Group4\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DA688F-B35D-4F2A-82E2-0134DF2464F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5381292E-914F-4C4F-82D6-FFEDA1FF0DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,7 +203,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
-    <numFmt numFmtId="167" formatCode="dd/mm"/>
+    <numFmt numFmtId="165" formatCode="dd/mm"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -429,10 +429,10 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -766,8 +766,8 @@
   </sheetPr>
   <dimension ref="A1:J1023"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -928,7 +928,7 @@
         <v>45498</v>
       </c>
       <c r="D6" s="7">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>48</v>
@@ -940,7 +940,7 @@
         <v>45498</v>
       </c>
       <c r="H6" s="7">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>49</v>
